--- a/biology/Zoologie/Karl_Henrik_Boheman/Karl_Henrik_Boheman.xlsx
+++ b/biology/Zoologie/Karl_Henrik_Boheman/Karl_Henrik_Boheman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Karl Henrik Boheman est un entomologiste suédois, né le 10 juillet 1796 à Jönköping et mort le 2 novembre 1868 à Stockholm.
 Spécialiste des coléoptères et particulièrement des Chrysomelidae et de l'ordre Rhynchophora, il collabore notamment avec Carl Johann Schoenherr (1772-1848) dans son grand travail sur les Curculionidae.
 Il fait paraître de nombreux travaux, parmi lesquels on peut citer Årsberättelse om framstegen i insekternas myria ach arachnidernas naturalhistoria under åren 1845 och 1846 (1847), Insecta Caffraria (deux volumes, 1848-1857), Monographia Cassididarum Holmiæ (quatre volumes, 1850-1862) et la neuvième partie, consacrée aux Cassidinae, dans Catalogue of coleopterous insects in the collection of the British Museum (1856).
-Ses collections sont conservées au Muséum suédois d'histoire naturelle[1].
+Ses collections sont conservées au Muséum suédois d'histoire naturelle.
 </t>
         </is>
       </c>
